--- a/dashboard-pk/data/Module_Data.xlsx
+++ b/dashboard-pk/data/Module_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angiih\Dropbox\_________FHGR\7 Semester\VIS\Umsetzung-Dashboard\pk-hs25-modulvisualisierung\dashboard-pk\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haig Strub\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFFAA2C-B1B3-40DB-89E5-B63E675DA40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{C6381535-C465-4A98-A43E-AE8958CA1020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEFB5CE5-B759-4A3E-9F58-2A7214AA1214}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datensatz Visualisierung" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="272">
   <si>
     <t>Modul_ID</t>
   </si>
@@ -86,387 +86,393 @@
     <t>Bestandesmanagement</t>
   </si>
   <si>
-    <t>4; 5; 6</t>
-  </si>
-  <si>
     <t>WPM</t>
   </si>
   <si>
     <t>GLAM</t>
   </si>
   <si>
+    <t>WR; MEKO</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Major GLAM</t>
+  </si>
+  <si>
+    <t>GLAM; Strategie; Metadaten; Provenienzforschung; Lebenszyklus; Datenanreicherung</t>
+  </si>
+  <si>
+    <t>Simon Schultze</t>
+  </si>
+  <si>
+    <t>Vermittelt Instrumente und Prozesse für den langfristigen Zugang zu Wissensressourcen in GLAM-Institutionen, inkl. Metadatenstandards und Umgang mit Fremddaten.</t>
+  </si>
+  <si>
+    <t>Die Studierenden können das Bestands- und Dienstleistungsangebot einer GLAM-Institution strategisch planen, Metadatenstandards und Regelwerke anwenden sowie Dokumente kulturhistorisch einordnen und Provenienzforschung betreiben.</t>
+  </si>
+  <si>
+    <t>DBMS</t>
+  </si>
+  <si>
+    <t>Datenbankmanagementsysteme</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>WINF</t>
+  </si>
+  <si>
+    <t>Informatik</t>
+  </si>
+  <si>
+    <t>Datenbanken; SQL; ER-Modell; NoSQL; PostgreSQL; Datenmodellierung; Normalformen</t>
+  </si>
+  <si>
+    <t>Weichselbraun Albert</t>
+  </si>
+  <si>
+    <t>Einführung in die Modellierung, Bewertung und Abfrage von relationalen Datenbanken mittels SQL sowie Abgrenzung zu NoSQL-Systemen.</t>
+  </si>
+  <si>
+    <t>Die Studierenden können relationale und NoSQL-Datenbanken unterscheiden, Datenmodelle (ER) erstellen und bewerten sowie SQL zur Datenmanipulation und -abfrage sicher anwenden.</t>
+  </si>
+  <si>
+    <t>DIGIMARK</t>
+  </si>
+  <si>
+    <t>Digitales Marketing</t>
+  </si>
+  <si>
+    <t>ABWLUDH</t>
+  </si>
+  <si>
+    <t>Betriebsökonomie</t>
+  </si>
+  <si>
+    <t>Marketing; SEO; SEA; Social Media; Content-Marketing; KI; Kommunikation</t>
+  </si>
+  <si>
+    <t>Bernard Bekavac</t>
+  </si>
+  <si>
+    <t>Vermittelt Grundlagen und Strategien des digitalen Marketings für Informationsorganisationen, inkl. SEO, Social Media und KI-Einsatz.</t>
+  </si>
+  <si>
+    <t>Die Studierenden können digitale Marketingstrategien entwickeln, Zielgruppen analysieren, Kampagnen planen und den Einsatz neuer Technologien wie KI im Marketing bewerten.</t>
+  </si>
+  <si>
+    <t>DPMS</t>
+  </si>
+  <si>
+    <t>Digitales Publizieren und Multimediasysteme</t>
+  </si>
+  <si>
+    <t>WINF; PROMG</t>
+  </si>
+  <si>
+    <t>Vertiefungsstudium</t>
+  </si>
+  <si>
+    <t>Multimedia; Video; Audio; Bildbearbeitung; E-Books; Webseiten; Projektarbeit; Storytelling</t>
+  </si>
+  <si>
+    <t>Michel Pfeiffer</t>
+  </si>
+  <si>
+    <t>Vermittelt technische und gestalterische Kompetenzen zur Produktion und Publikation digitaler Medien (Bild, Audio, Video, Web) in multimedialen Arrangements.</t>
+  </si>
+  <si>
+    <t>Die Studierenden können digitale Medien (Bild, Audio, Video) produzieren und bearbeiten, multimediale Arrangements konzipieren und publizieren sowie deren Nutzung auf verschiedenen Geräten beurteilen.</t>
+  </si>
+  <si>
+    <t>DIPU</t>
+  </si>
+  <si>
+    <t>Digitalisieren und Publizieren</t>
+  </si>
+  <si>
+    <t>Digitalisierung; Open Access; Open Science; Konservierung; Crowdsourcing; Wikis; GLAM; Medientypen</t>
+  </si>
+  <si>
+    <t>Vermittelt Methoden zur professionellen Digitalisierung von GLAM-Beständen und deren Publikation, mit Fokus auf Open Access und Open Science.</t>
+  </si>
+  <si>
+    <t>Die Studierenden können GLAM-Bestände kontextbezogen digitalisieren, Erhaltungsplanung anwenden sowie Open Access und Crowdsourcing-Plattformen initiieren.</t>
+  </si>
+  <si>
+    <t>GLAMA</t>
+  </si>
+  <si>
+    <t>GLAM-Management</t>
+  </si>
+  <si>
+    <t>GLAM; Management; Non-Profit; Prozesse; Effizienz; Risikomanagement; Budget; Infrastruktur</t>
+  </si>
+  <si>
+    <t>Vermittelt Methoden zur Optimierung interner Prozesse in GLAM-Institutionen aus Sicht des Non-Profit-Managements, inkl. Risikomanagement und Infrastruktur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Studierenden können interne Prozesse einer GLAM-Institution hinsichtlich Effizienz und Nachhaltigkeit optimieren, Risiken einschätzen und das Budget verantwortungsvoll verwalten. </t>
+  </si>
+  <si>
+    <t>GLIW</t>
+  </si>
+  <si>
+    <t>Grundlagen der Informationswissenschaft</t>
+  </si>
+  <si>
+    <t>1;2</t>
+  </si>
+  <si>
+    <t>Informationswissenschaft</t>
+  </si>
+  <si>
+    <t>Informationswissenschaft; GLAM; Informationsmanagement; Medienmanagement; Datenmanagement; Informationsethik; Informationsökonomie; Usability</t>
+  </si>
+  <si>
+    <t>Bietet eine umfassende Einführung in die Informationswissenschaft sowie in die Vertiefungen GLAM und Information, Data &amp; Media Management.</t>
+  </si>
+  <si>
+    <t>Die Studierenden können informationswissenschaftliche Grundbegriffe anwenden, historische und gesellschaftliche Bedeutung reflektieren sowie die Vertiefungen GLAM und IDMM überblicken.</t>
+  </si>
+  <si>
+    <t>IRKI</t>
+  </si>
+  <si>
+    <t>Information Retrieval Systeme und Künstliche Intelligenz</t>
+  </si>
+  <si>
+    <t>WOR</t>
+  </si>
+  <si>
+    <t>Informationsmethodik</t>
+  </si>
+  <si>
+    <t>Information Retrieval; KI; Suchmaschinen; NLP; Ranking; Generative KI; Evaluation</t>
+  </si>
+  <si>
+    <t>Vermittelt methodische und technische Grundlagen von Retrieval-Systemen und KI-basierter Suche, inkl. Funktionsweise, Evaluation und NLP.</t>
+  </si>
+  <si>
+    <t>Die Studierenden können Retrieval-Methoden und KI-Suchsysteme verstehen, bewerten und die Funktionsweise von Suchmaschinen und NLP-Verfahren erklären.</t>
+  </si>
+  <si>
+    <t>IWAW</t>
+  </si>
+  <si>
+    <t>Informationswissenschaftliche Anwendungssysteme</t>
+  </si>
+  <si>
+    <t>WINF; WOR; IRKI</t>
+  </si>
+  <si>
+    <t>Suchmaschinen; Discovery-Systeme; Metadaten; Solr; VuFind; Repository; OAI-PMH; RAG; Linked Data; JSON-API; CMS; MAM</t>
+  </si>
+  <si>
+    <t>Vermittelt Kenntnisse über praxisrelevante Software-Lösungen, Architekturen und Standards (z. B. Solr, Metadaten) im Bereich Information Science.</t>
+  </si>
+  <si>
+    <t>Die Studierenden können Aufbau und Funktion von Anwendungssystemen (Suchmaschinen, Repositories) erklären, Metadatenmodelle anwenden und Softwarelösungen evaluieren.</t>
+  </si>
+  <si>
+    <t>INEN</t>
+  </si>
+  <si>
+    <t>Innovation und Entwicklung</t>
+  </si>
+  <si>
+    <t>Innovation; GLAM; Strategie; Trendanalyse; Personas; Szenarien; Teamentwicklung; Weiterentwicklung; Organisation</t>
+  </si>
+  <si>
+    <t>Methoden und Strategien zur kontinuierlichen Weiterentwicklung von GLAM-Institutionen, inkl. Trendanalysen und Teamentwicklung.</t>
+  </si>
+  <si>
+    <t>Die Studierenden können Trends erkennen, Strategien zur Weiterentwicklung von GLAM-Institutionen entwickeln, interaktive Systeme konzipieren und Teamentwicklungsprozesse verstehen.</t>
+  </si>
+  <si>
+    <t>KIPRO</t>
+  </si>
+  <si>
+    <t>KI-gestützte Programmierung</t>
+  </si>
+  <si>
+    <t>PROG</t>
+  </si>
+  <si>
+    <t>KI; Softwareentwicklung; Coding; Prompt Engineering; GitHub Copilot; Python; Flask; React; Machine Learning</t>
+  </si>
+  <si>
+    <t>Jörg Osterrieder</t>
+  </si>
+  <si>
+    <t>Praktische Erfahrung in der Softwareentwicklung mit KI-Assistenten (z. B. GitHub Copilot), Prompt Engineering und Entwicklung von Full-Stack-Webanwendungen.</t>
+  </si>
+  <si>
+    <t>Die Studierenden können KI-Coding-Tools (Copilot, ChatGPT) effektiv einsetzen, Full-Stack-Webanwendungen entwickeln und KI-generierten Code kritisch evaluieren.</t>
+  </si>
+  <si>
+    <t>KOPR</t>
+  </si>
+  <si>
+    <t>Konzeption und Prototyping</t>
+  </si>
+  <si>
+    <t>INNODI; DIGIMARK; WINF</t>
+  </si>
+  <si>
+    <t>Prototyping; Webdesign; User Experience; Personas; Szenarien; Evaluation; Figma; HTML; CSS; Design Thinking; Usability Testing</t>
+  </si>
+  <si>
+    <t>Philipp Liebrenz</t>
+  </si>
+  <si>
+    <t>Vermittelt grundlegende und fortgeschrittene Kompetenzen der nutzerzentrierten Gestaltung, vom Konzept über Prototyping mit Tools wie Figma bis zum Testing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Studierenden können Prototyping-Methoden auswählen, interaktive Prototypen (z. B. mit Figma) erstellen, Nutzerfeedback integrieren und Designentscheidungen begründen. </t>
+  </si>
+  <si>
+    <t>LEZY1</t>
+  </si>
+  <si>
+    <t>Lebenszyklusmanagement 1</t>
+  </si>
+  <si>
+    <t>Lebenszyklus; Archivierung; Informationsmanagement; Bewertung; OAIS; Records Management; Fallstudie</t>
+  </si>
+  <si>
+    <t>Edzard Schade</t>
+  </si>
+  <si>
+    <t>Vermittelt Grundlagen der Verwaltung von Informationsobjekten über deren gesamten Lebenszyklus, von der Entstehung bis zur Archivierung (OAIS-Modell).</t>
+  </si>
+  <si>
+    <t>Die Studierenden können Lebenszyklusmodelle anwenden, Informationsobjekte bewerten, Phasenübergänge managen und rechtliche Anforderungen an das Informationsmanagement umsetzen.</t>
+  </si>
+  <si>
+    <t>LEZY2</t>
+  </si>
+  <si>
+    <t>Lebenszyklusmanagement 2</t>
+  </si>
+  <si>
+    <t>LEZY1; DPMS</t>
+  </si>
+  <si>
+    <t>Digitale Archivierung; Records Management; GEVER; Datenakquise; Migration; Emulation; OAIS; Fallstudie</t>
+  </si>
+  <si>
+    <t>Vermittelt praktische Methoden der digitalen Langzeitarchivierung, inkl. Datenakquise, Metadatenanalyse und Erhaltungsstrategien wie Migration und Emulation.</t>
+  </si>
+  <si>
+    <t>Die Studierenden können digitale Objekte identifizieren, erschliessen und archivieren sowie Erhaltungsstrategien wie Migration und Emulation praktisch anwenden.</t>
+  </si>
+  <si>
+    <t>MASOFO</t>
+  </si>
+  <si>
+    <t>Markt- und Sozialforschung</t>
+  </si>
+  <si>
+    <t>WIARB; STAT</t>
+  </si>
+  <si>
+    <t>Arbeits- &amp; Forschungs-Methodik</t>
+  </si>
+  <si>
+    <t>Empirie; Qualitative Forschung; Quantitative Forschung; Datenerhebung; Befragung; Fragebogen; Forschungsethik; Auswertung; Projektarbeit</t>
+  </si>
+  <si>
+    <t>Urs Dahinden</t>
+  </si>
+  <si>
+    <t>Vermittelt Grundlagen der empirischen Sozialforschung, von der Formulierung von Forschungsfragen über die Datenerhebung bis zur Auswertung und Präsentation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Studierenden können qualitative und quantitative Forschungsmethoden anwenden, ein Forschungsdesign erstellen und Daten erheben sowie analysieren. </t>
+  </si>
+  <si>
+    <t>MEKO</t>
+  </si>
+  <si>
+    <t>Medienkonservierung</t>
+  </si>
+  <si>
+    <t>Konservierung; Restaurierung; Papier; Fotografie; Audio; Video; Film; Medienformate; Erhaltungsstrategien; Langzeitarchivierung</t>
+  </si>
+  <si>
+    <t>Die Studierenden lernen analoge Medien, deren Materialeigenschaften und Alterungszustände kennen, um präventive Konservierungsmassnahmen einzuleiten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Studierenden können den Zustand analoger und digitaler Medien analysieren und geeignete Bestanderhaltungs- und Konservierungsmassnahmen einleiten. </t>
+  </si>
+  <si>
+    <t>ÖFGE</t>
+  </si>
+  <si>
+    <t>Öffentlichkeit und Gedächtnisinstitutionen</t>
+  </si>
+  <si>
+    <t>GLAM; Kommunikation; Fundraising; Förderanträge; Urheberrecht; Datenschutz; Nutzendenforschung; Gesellschaft</t>
+  </si>
+  <si>
+    <t>Befasst sich mit der Schnittstelle zwischen GLAM-Institution und Stakeholdern, inkl. Fundraising, Öffentlichkeitsarbeit, Recht und Nutzendenforschung.</t>
+  </si>
+  <si>
+    <t>Die Studierenden können Förderanträge schreiben, Fundraising betreiben, rechtliche Rahmenbedingungen (Urheberrecht) einhalten und Nutzendenforschung durchführen.</t>
+  </si>
+  <si>
+    <t>Programmierlogiken</t>
+  </si>
+  <si>
+    <t>Programmierung; Algorithmen; Python; Datenstrukturen; Logik; Syntax; Struktogramm; CSV; JSON</t>
+  </si>
+  <si>
+    <t>Vermittelt Grundlagen der Programmierung (Python), algorithmisches Denken und Datenverarbeitung als Basis für die Entwicklung von Informationssystemen.</t>
+  </si>
+  <si>
+    <t>Die Studierenden können grundlegende Programmierkonzepte (Python) anwenden, Algorithmen entwerfen und Daten in verschiedenen Formaten (CSV, JSON) verarbeiten.</t>
+  </si>
+  <si>
+    <t>VEZU</t>
+  </si>
+  <si>
+    <t>Vermittlung und Zugang</t>
+  </si>
+  <si>
+    <t>Vermittlung; Didaktik; Bildungsangebote; Wissenschaftskommunikation; Inklusion; Interkulturalität; GLAM; Lese- und Mediensozialisation</t>
+  </si>
+  <si>
+    <t>Vermittelt didaktische Grundlagen, um Wissen und Kompetenzen in GLAM-Institutionen zielgruppengerecht und inklusiv zu vermitteln.</t>
+  </si>
+  <si>
+    <t>Die Studierenden können Bildungsangebote entwickeln, analoge und digitale Inhalte aufbereiten und Methoden der Wissenschaftskommunikation anwenden.</t>
+  </si>
+  <si>
+    <t>WO</t>
+  </si>
+  <si>
+    <t>Wissensorganisation</t>
+  </si>
+  <si>
+    <t>Erschliessung; Metadaten; Klassifikation; Thesaurus; Abstracting; Indexierung; Ordnungslehre; GLAM</t>
+  </si>
+  <si>
+    <t>Vermittelt theoretische und konzeptionelle Grundlagen der formalen und inhaltlichen Wissensorganisation sowie Methoden der Erschliessung.</t>
+  </si>
+  <si>
+    <t>Die Studierenden können Methoden der inhaltlichen Erschliessung erklären, Instrumente der Wissensorganisation anwenden und deren Relevanz begründen.</t>
+  </si>
+  <si>
     <t>WR</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Major GLAM</t>
-  </si>
-  <si>
-    <t>GLAM; Strategie; Metadaten; Provenienzforschung; Lebenszyklus; Datenanreicherung</t>
-  </si>
-  <si>
-    <t>Simon Schultze</t>
-  </si>
-  <si>
-    <t>Vermittelt Instrumente und Prozesse für den langfristigen Zugang zu Wissensressourcen in GLAM-Institutionen, inkl. Metadatenstandards und Umgang mit Fremddaten.</t>
-  </si>
-  <si>
-    <t>Die Studierenden können das Bestands- und Dienstleistungsangebot einer GLAM-Institution strategisch planen, Metadatenstandards und Regelwerke anwenden sowie Dokumente kulturhistorisch einordnen und Provenienzforschung betreiben.</t>
-  </si>
-  <si>
-    <t>DBMS</t>
-  </si>
-  <si>
-    <t>Datenbankmanagementsysteme</t>
-  </si>
-  <si>
-    <t>PM</t>
-  </si>
-  <si>
-    <t>Common</t>
-  </si>
-  <si>
-    <t>WINF</t>
-  </si>
-  <si>
-    <t>Informatik</t>
-  </si>
-  <si>
-    <t>Datenbanken; SQL; ER-Modell; NoSQL; PostgreSQL; Datenmodellierung; Normalformen</t>
-  </si>
-  <si>
-    <t>Weichselbraun Albert</t>
-  </si>
-  <si>
-    <t>Einführung in die Modellierung, Bewertung und Abfrage von relationalen Datenbanken mittels SQL sowie Abgrenzung zu NoSQL-Systemen.</t>
-  </si>
-  <si>
-    <t>Die Studierenden können relationale und NoSQL-Datenbanken unterscheiden, Datenmodelle (ER) erstellen und bewerten sowie SQL zur Datenmanipulation und -abfrage sicher anwenden.</t>
-  </si>
-  <si>
-    <t>Vertiefungsstudium</t>
-  </si>
-  <si>
-    <t>DIGIMARK</t>
-  </si>
-  <si>
-    <t>Digitales Marketing</t>
-  </si>
-  <si>
-    <t>ABWLUDH</t>
-  </si>
-  <si>
-    <t>Betriebsökonomie</t>
-  </si>
-  <si>
-    <t>Marketing; SEO; SEA; Social Media; Content-Marketing; KI; Kommunikation</t>
-  </si>
-  <si>
-    <t>Bernard Bekavac</t>
-  </si>
-  <si>
-    <t>Vermittelt Grundlagen und Strategien des digitalen Marketings für Informationsorganisationen, inkl. SEO, Social Media und KI-Einsatz.</t>
-  </si>
-  <si>
-    <t>Die Studierenden können digitale Marketingstrategien entwickeln, Zielgruppen analysieren, Kampagnen planen und den Einsatz neuer Technologien wie KI im Marketing bewerten.</t>
-  </si>
-  <si>
-    <t>DPMS</t>
-  </si>
-  <si>
-    <t>Digitales Publizieren und Multimediasysteme</t>
-  </si>
-  <si>
-    <t>WINF; PROMG</t>
-  </si>
-  <si>
-    <t>Multimedia; Video; Audio; Bildbearbeitung; E-Books; Webseiten; Projektarbeit; Storytelling</t>
-  </si>
-  <si>
-    <t>Michel Pfeiffer</t>
-  </si>
-  <si>
-    <t>Vermittelt technische und gestalterische Kompetenzen zur Produktion und Publikation digitaler Medien (Bild, Audio, Video, Web) in multimedialen Arrangements.</t>
-  </si>
-  <si>
-    <t>Die Studierenden können digitale Medien (Bild, Audio, Video) produzieren und bearbeiten, multimediale Arrangements konzipieren und publizieren sowie deren Nutzung auf verschiedenen Geräten beurteilen.</t>
-  </si>
-  <si>
-    <t>DIPU</t>
-  </si>
-  <si>
-    <t>Digitalisieren und Publizieren</t>
-  </si>
-  <si>
-    <t>Digitalisierung; Open Access; Open Science; Konservierung; Crowdsourcing; Wikis; GLAM; Medientypen</t>
-  </si>
-  <si>
-    <t>Vermittelt Methoden zur professionellen Digitalisierung von GLAM-Beständen und deren Publikation, mit Fokus auf Open Access und Open Science.</t>
-  </si>
-  <si>
-    <t>Die Studierenden können GLAM-Bestände kontextbezogen digitalisieren, Erhaltungsplanung anwenden sowie Open Access und Crowdsourcing-Plattformen initiieren.</t>
-  </si>
-  <si>
-    <t>GLAMA</t>
-  </si>
-  <si>
-    <t>GLAM-Management</t>
-  </si>
-  <si>
-    <t>GLAM; Management; Non-Profit; Prozesse; Effizienz; Risikomanagement; Budget; Infrastruktur</t>
-  </si>
-  <si>
-    <t>Vermittelt Methoden zur Optimierung interner Prozesse in GLAM-Institutionen aus Sicht des Non-Profit-Managements, inkl. Risikomanagement und Infrastruktur.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Studierenden können interne Prozesse einer GLAM-Institution hinsichtlich Effizienz und Nachhaltigkeit optimieren, Risiken einschätzen und das Budget verantwortungsvoll verwalten. </t>
-  </si>
-  <si>
-    <t>GLIW</t>
-  </si>
-  <si>
-    <t>Grundlagen der Informationswissenschaft</t>
-  </si>
-  <si>
-    <t>Informationswissenschaft</t>
-  </si>
-  <si>
-    <t>Informationswissenschaft; GLAM; Informationsmanagement; Medienmanagement; Datenmanagement; Informationsethik; Informationsökonomie; Usability</t>
-  </si>
-  <si>
-    <t>Bietet eine umfassende Einführung in die Informationswissenschaft sowie in die Vertiefungen GLAM und Information, Data &amp; Media Management.</t>
-  </si>
-  <si>
-    <t>Die Studierenden können informationswissenschaftliche Grundbegriffe anwenden, historische und gesellschaftliche Bedeutung reflektieren sowie die Vertiefungen GLAM und IDMM überblicken.</t>
-  </si>
-  <si>
-    <t>IRKI</t>
-  </si>
-  <si>
-    <t>Information Retrieval Systeme und Künstliche Intelligenz</t>
-  </si>
-  <si>
-    <t>WOR</t>
-  </si>
-  <si>
-    <t>Informationsmethodik</t>
-  </si>
-  <si>
-    <t>Information Retrieval; KI; Suchmaschinen; NLP; Ranking; Generative KI; Evaluation</t>
-  </si>
-  <si>
-    <t>Vermittelt methodische und technische Grundlagen von Retrieval-Systemen und KI-basierter Suche, inkl. Funktionsweise, Evaluation und NLP.</t>
-  </si>
-  <si>
-    <t>Die Studierenden können Retrieval-Methoden und KI-Suchsysteme verstehen, bewerten und die Funktionsweise von Suchmaschinen und NLP-Verfahren erklären.</t>
-  </si>
-  <si>
-    <t>IWAW</t>
-  </si>
-  <si>
-    <t>Informationswissenschaftliche Anwendungssysteme</t>
-  </si>
-  <si>
-    <t>WINF; WOR; IRKI; IR</t>
-  </si>
-  <si>
-    <t>Suchmaschinen; Discovery-Systeme; Metadaten; Solr; VuFind; Repository; OAI-PMH; RAG; Linked Data; JSON-API; CMS; MAM</t>
-  </si>
-  <si>
-    <t>Vermittelt Kenntnisse über praxisrelevante Software-Lösungen, Architekturen und Standards (z. B. Solr, Metadaten) im Bereich Information Science.</t>
-  </si>
-  <si>
-    <t>Die Studierenden können Aufbau und Funktion von Anwendungssystemen (Suchmaschinen, Repositories) erklären, Metadatenmodelle anwenden und Softwarelösungen evaluieren.</t>
-  </si>
-  <si>
-    <t>INEN</t>
-  </si>
-  <si>
-    <t>Innovation und Entwicklung</t>
-  </si>
-  <si>
-    <t>Innovation; GLAM; Strategie; Trendanalyse; Personas; Szenarien; Teamentwicklung; Weiterentwicklung; Organisation</t>
-  </si>
-  <si>
-    <t>Methoden und Strategien zur kontinuierlichen Weiterentwicklung von GLAM-Institutionen, inkl. Trendanalysen und Teamentwicklung.</t>
-  </si>
-  <si>
-    <t>Die Studierenden können Trends erkennen, Strategien zur Weiterentwicklung von GLAM-Institutionen entwickeln, interaktive Systeme konzipieren und Teamentwicklungsprozesse verstehen.</t>
-  </si>
-  <si>
-    <t>KIPRO</t>
-  </si>
-  <si>
-    <t>KI-gestützte Programmierung</t>
-  </si>
-  <si>
-    <t>PROG</t>
-  </si>
-  <si>
-    <t>Jörg Osterrieder</t>
-  </si>
-  <si>
-    <t>Praktische Erfahrung in der Softwareentwicklung mit KI-Assistenten (z. B. GitHub Copilot), Prompt Engineering und Entwicklung von Full-Stack-Webanwendungen.</t>
-  </si>
-  <si>
-    <t>Die Studierenden können KI-Coding-Tools (Copilot, ChatGPT) effektiv einsetzen, Full-Stack-Webanwendungen entwickeln und KI-generierten Code kritisch evaluieren.</t>
-  </si>
-  <si>
-    <t>KOPR</t>
-  </si>
-  <si>
-    <t>Konzeption und Prototyping</t>
-  </si>
-  <si>
-    <t>USAB; INNODI; DIGIMARK; WINF</t>
-  </si>
-  <si>
-    <t>Prototyping; Webdesign; User Experience; Personas; Szenarien; Evaluation; Figma; HTML; CSS; Design Thinking; Usability Testing</t>
-  </si>
-  <si>
-    <t>Philipp Liebrenz</t>
-  </si>
-  <si>
-    <t>Vermittelt grundlegende und fortgeschrittene Kompetenzen der nutzerzentrierten Gestaltung, vom Konzept über Prototyping mit Tools wie Figma bis zum Testing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Studierenden können Prototyping-Methoden auswählen, interaktive Prototypen (z. B. mit Figma) erstellen, Nutzerfeedback integrieren und Designentscheidungen begründen. </t>
-  </si>
-  <si>
-    <t>LEZY1</t>
-  </si>
-  <si>
-    <t>Lebenszyklusmanagement 1</t>
-  </si>
-  <si>
-    <t>Lebenszyklus; Archivierung; Informationsmanagement; Bewertung; OAIS; Records Management; Fallstudie</t>
-  </si>
-  <si>
-    <t>Edzard Schade</t>
-  </si>
-  <si>
-    <t>Vermittelt Grundlagen der Verwaltung von Informationsobjekten über deren gesamten Lebenszyklus, von der Entstehung bis zur Archivierung (OAIS-Modell).</t>
-  </si>
-  <si>
-    <t>Die Studierenden können Lebenszyklusmodelle anwenden, Informationsobjekte bewerten, Phasenübergänge managen und rechtliche Anforderungen an das Informationsmanagement umsetzen.</t>
-  </si>
-  <si>
-    <t>LEZY2</t>
-  </si>
-  <si>
-    <t>Lebenszyklusmanagement 2</t>
-  </si>
-  <si>
-    <t>LEZY1; DPMS</t>
-  </si>
-  <si>
-    <t>Digitale Archivierung; Records Management; GEVER; Datenakquise; Migration; Emulation; OAIS; Fallstudie</t>
-  </si>
-  <si>
-    <t>Vermittelt praktische Methoden der digitalen Langzeitarchivierung, inkl. Datenakquise, Metadatenanalyse und Erhaltungsstrategien wie Migration und Emulation.</t>
-  </si>
-  <si>
-    <t>Die Studierenden können digitale Objekte identifizieren, erschliessen und archivieren sowie Erhaltungsstrategien wie Migration und Emulation praktisch anwenden.</t>
-  </si>
-  <si>
-    <t>MASOFO</t>
-  </si>
-  <si>
-    <t>Markt- und Sozialforschung</t>
-  </si>
-  <si>
-    <t>WIARB; STAT</t>
-  </si>
-  <si>
-    <t>Arbeits- &amp; Forschungs-Methodik</t>
-  </si>
-  <si>
-    <t>Empirie; Qualitative Forschung; Quantitative Forschung; Datenerhebung; Befragung; Fragebogen; Forschungsethik; Auswertung; Projektarbeit</t>
-  </si>
-  <si>
-    <t>Urs Dahinden</t>
-  </si>
-  <si>
-    <t>Vermittelt Grundlagen der empirischen Sozialforschung, von der Formulierung von Forschungsfragen über die Datenerhebung bis zur Auswertung und Präsentation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Studierenden können qualitative und quantitative Forschungsmethoden anwenden, ein Forschungsdesign erstellen und Daten erheben sowie analysieren. </t>
-  </si>
-  <si>
-    <t>MEKO</t>
-  </si>
-  <si>
-    <t>Medienkonservierung</t>
-  </si>
-  <si>
-    <t>Konservierung; Restaurierung; Papier; Fotografie; Audio; Video; Film; Medienformate; Erhaltungsstrategien; Langzeitarchivierung</t>
-  </si>
-  <si>
-    <t>Die Studierenden lernen analoge Medien, deren Materialeigenschaften und Alterungszustände kennen, um präventive Konservierungsmassnahmen einzuleiten.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Studierenden können den Zustand analoger und digitaler Medien analysieren und geeignete Bestanderhaltungs- und Konservierungsmassnahmen einleiten. </t>
-  </si>
-  <si>
-    <t>ÖFGE</t>
-  </si>
-  <si>
-    <t>Öffentlichkeit und Gedächtnisinstitutionen</t>
-  </si>
-  <si>
-    <t>GLAM; Kommunikation; Fundraising; Förderanträge; Urheberrecht; Datenschutz; Nutzendenforschung; Gesellschaft</t>
-  </si>
-  <si>
-    <t>Befasst sich mit der Schnittstelle zwischen GLAM-Institution und Stakeholdern, inkl. Fundraising, Öffentlichkeitsarbeit, Recht und Nutzendenforschung.</t>
-  </si>
-  <si>
-    <t>Die Studierenden können Förderanträge schreiben, Fundraising betreiben, rechtliche Rahmenbedingungen (Urheberrecht) einhalten und Nutzendenforschung durchführen.</t>
-  </si>
-  <si>
-    <t>Programmierlogiken</t>
-  </si>
-  <si>
-    <t>Programmierung; Algorithmen; Python; Datenstrukturen; Logik; Syntax; Struktogramm; CSV; JSON</t>
-  </si>
-  <si>
-    <t>Vermittelt Grundlagen der Programmierung (Python), algorithmisches Denken und Datenverarbeitung als Basis für die Entwicklung von Informationssystemen.</t>
-  </si>
-  <si>
-    <t>Die Studierenden können grundlegende Programmierkonzepte (Python) anwenden, Algorithmen entwerfen und Daten in verschiedenen Formaten (CSV, JSON) verarbeiten.</t>
-  </si>
-  <si>
-    <t>VEZU</t>
-  </si>
-  <si>
-    <t>Vermittlung und Zugang</t>
-  </si>
-  <si>
-    <t>Vermittlung; Didaktik; Bildungsangebote; Wissenschaftskommunikation; Inklusion; Interkulturalität; GLAM; Lese- und Mediensozialisation</t>
-  </si>
-  <si>
-    <t>Vermittelt didaktische Grundlagen, um Wissen und Kompetenzen in GLAM-Institutionen zielgruppengerecht und inklusiv zu vermitteln.</t>
-  </si>
-  <si>
-    <t>Die Studierenden können Bildungsangebote entwickeln, analoge und digitale Inhalte aufbereiten und Methoden der Wissenschaftskommunikation anwenden.</t>
-  </si>
-  <si>
-    <t>WO</t>
-  </si>
-  <si>
-    <t>Wissensorganisation</t>
-  </si>
-  <si>
-    <t>Erschliessung; Metadaten; Klassifikation; Thesaurus; Abstracting; Indexierung; Ordnungslehre; GLAM</t>
-  </si>
-  <si>
-    <t>Vermittelt theoretische und konzeptionelle Grundlagen der formalen und inhaltlichen Wissensorganisation sowie Methoden der Erschliessung.</t>
-  </si>
-  <si>
-    <t>Die Studierenden können Methoden der inhaltlichen Erschliessung erklären, Instrumente der Wissensorganisation anwenden und deren Relevanz begründen.</t>
-  </si>
-  <si>
     <t>Wissensrepräsentation</t>
   </si>
   <si>
@@ -485,6 +491,9 @@
     <t>Requirements Engineering</t>
   </si>
   <si>
+    <t>Requirements Engineering; Anforderungsanalyse; Spezifikation; Prozessmodellierung; PlantUML; AI4RE; Projektmanagement; Agil</t>
+  </si>
+  <si>
     <t>Anthea Moravánszky</t>
   </si>
   <si>
@@ -557,9 +566,18 @@
     <t>IDMM</t>
   </si>
   <si>
+    <t>PROG; KIPRO</t>
+  </si>
+  <si>
+    <t>GLIW; DMAN</t>
+  </si>
+  <si>
     <t>Major IDMM</t>
   </si>
   <si>
+    <t>Datenvernetzung; Data Warehouse; NoSQL; KI; Data Lake; Interoperability; FAIR; Wissensbasis; Schnittstellen</t>
+  </si>
+  <si>
     <t>David H. Schiller</t>
   </si>
   <si>
@@ -590,6 +608,9 @@
     <t>Data Governance</t>
   </si>
   <si>
+    <t>Data Governance; Datenmanagement; Strategie; Organisation; Data Lifecycle; Rollen; Wertschöpfung; Lebenszyklus</t>
+  </si>
+  <si>
     <t>Vermittelt Konzepte für eine strukturierte und nachvollziehbare Behandlung von Daten in einem organisatorischen Kontext (Data Governance).</t>
   </si>
   <si>
@@ -602,6 +623,9 @@
     <t>Datenmanagement</t>
   </si>
   <si>
+    <t>Datenmanagement; Forschungsdaten; FAIR; CARE; Open Science; Langzeitarchivierung; KI; Data Governance; Datenqualität; Ethik; Datenschutz; Lizenzen</t>
+  </si>
+  <si>
     <t>Vermittelt Inhalte und Ziele des Datenmanagements mit Fokus auf Forschungsdaten, betriebliche Aspekte und KI-Einsatz.</t>
   </si>
   <si>
@@ -617,16 +641,25 @@
     <t>ABWLUDH; WIARB; GLIW</t>
   </si>
   <si>
+    <t>Gesellschaft und Fremdsprachen</t>
+  </si>
+  <si>
+    <t>Nachhaltigkeit; Ethik; Informationsethik; Datenethik; Ökologie; Moral; Verantwortung; Start-Up; Datenschutz</t>
+  </si>
+  <si>
     <t>Greift Nachhaltigkeit und Ethik als prägende Themen auf. Vermittelt Grundlagen nachhaltiger Entwicklung und vertieft Informations- und Datenethik anhand von Fallbeispielen</t>
   </si>
   <si>
+    <t xml:space="preserve">Die Studierenden können Konzepte der Nachhaltigkeit verstehen, ethische Entscheidungen herbeiführen, Spannungsfelder (z. B. Bias) reflektieren und ein Wertemanifest erstellen. </t>
+  </si>
+  <si>
     <t>WIMAN</t>
   </si>
   <si>
     <t>Wissens- und Informationsmanagement</t>
   </si>
   <si>
-    <t xml:space="preserve">GLIW; WIAR </t>
+    <t xml:space="preserve">GLIW; WIARB </t>
   </si>
   <si>
     <t>Wissensmanagement; Informationsmanagement; Wissenstransfer; Informationslogistik; Prozessmanagement; Datenmanagement; Informationskultur; Modellierung</t>
@@ -656,9 +689,6 @@
     <t>Die Studierenden können Beratungsprozesse gestalten, Rollen in Beratungssituationen reflektieren und kundenzentrierte Angebote entwickeln.</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Studierenden können Konzepte der Nachhaltigkeit verstehen, ethische Entscheidungen herbeiführen, Spannungsfelder (z. B. Bias) reflektieren und ein Wertemanifest erstellen. </t>
-  </si>
-  <si>
     <t>WERT</t>
   </si>
   <si>
@@ -668,6 +698,9 @@
     <t>DIGIMARK; DPMS</t>
   </si>
   <si>
+    <t>Wertschöpfung; Geschäftsmodelle; Content-Marketing; Monetarisierung; Audience Development; Plattformökonomie; Medienökonomie; Social Media; SEO; Analytics</t>
+  </si>
+  <si>
     <t>Behandelt Strategien zur Monetarisierung von Medieninhalten, Audience Development und datenbasierte Optimierung der Wertschöpfung in digitalen Märkten.</t>
   </si>
   <si>
@@ -713,6 +746,9 @@
     <t>Allgemeine Betriebswirtschaftslehre</t>
   </si>
   <si>
+    <t>Betriebswirtschaft; St. Galler Managementmodell; Strategie; Organisation; Unternehmenskultur; Management; Fallstudie; Wirtschaftssystem</t>
+  </si>
+  <si>
     <t>Gian-Andri Hässig</t>
   </si>
   <si>
@@ -743,6 +779,9 @@
     <t>Innovationsmanagement und Design Thinking</t>
   </si>
   <si>
+    <t>Innovation; Design Thinking; Kreativität; Problemlösung; Prototyping; Ideenfindung; Management; Fallstudie; Teambuilding</t>
+  </si>
+  <si>
     <t>Vermittelt Grundlagen des Innovationsmanagements und die Design Thinking Methode, um innovative Lösungen für komplexe Probleme zu entwickeln.</t>
   </si>
   <si>
@@ -755,9 +794,6 @@
     <t>Kommunikation und Psychologie</t>
   </si>
   <si>
-    <t>Gesellschaft und Fremdsprachen</t>
-  </si>
-  <si>
     <t>Psychologie; Kommunikation; Soft Skills; Soziale Kompetenz; Persönlichkeitspsychologie; Konfliktmanagement; Selbstreflexion; Transaktionsanalyse</t>
   </si>
   <si>
@@ -819,49 +855,13 @@
   </si>
   <si>
     <t>Die Studierenden können wissenschaftliche Fragestellungen formulieren, Literatur recherchieren und bewerten, korrekt zitieren und wissenschaftliche Texte verfassen.</t>
-  </si>
-  <si>
-    <t>PROG; KIPRO</t>
-  </si>
-  <si>
-    <t>GLIW; DMAN</t>
-  </si>
-  <si>
-    <t>WR; MEKO</t>
-  </si>
-  <si>
-    <t>Wertschöpfung; Geschäftsmodelle; Content-Marketing; Monetarisierung; Audience Development; Plattformökonomie; Medienökonomie; Social Media; SEO; Analytics</t>
-  </si>
-  <si>
-    <t>KI; Softwareentwicklung; Coding; Prompt Engineering; GitHub Copilot; Python; Flask; React; Machine Learning</t>
-  </si>
-  <si>
-    <t>Datenvernetzung; Data Warehouse; NoSQL; KI; Data Lake; Interoperability; FAIR; Wissensbasis; Schnittstellen</t>
-  </si>
-  <si>
-    <t>Requirements Engineering; Anforderungsanalyse; Spezifikation; Prozessmodellierung; PlantUML; AI4RE; Projektmanagement; Agil</t>
-  </si>
-  <si>
-    <t>Betriebswirtschaft; St. Galler Managementmodell; Strategie; Organisation; Unternehmenskultur; Management; Fallstudie; Wirtschaftssystem</t>
-  </si>
-  <si>
-    <t>Innovation; Design Thinking; Kreativität; Problemlösung; Prototyping; Ideenfindung; Management; Fallstudie; Teambuilding</t>
-  </si>
-  <si>
-    <t>Data Governance; Datenmanagement; Strategie; Organisation; Data Lifecycle; Rollen; Wertschöpfung; Lebenszyklus</t>
-  </si>
-  <si>
-    <t>Datenmanagement; Forschungsdaten; FAIR; CARE; Open Science; Langzeitarchivierung; KI; Data Governance; Datenqualität; Ethik; Datenschutz; Lizenzen</t>
-  </si>
-  <si>
-    <t>Nachhaltigkeit; Ethik; Informationsethik; Datenethik; Ökologie; Moral; Verantwortung; Start-Up; Datenschutz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1193,16 +1193,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="52.28515625" customWidth="1"/>
@@ -1219,7 +1219,7 @@
     <col min="13" max="13" width="48.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1260,53 +1260,53 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="90">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="5">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
-        <v>262</v>
-      </c>
       <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:13" ht="75">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
       </c>
       <c r="C3" s="5">
         <v>3</v>
@@ -1315,218 +1315,218 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="60">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="5">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="90">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="105">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="5">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="5">
-        <v>4</v>
-      </c>
-      <c r="D4" s="5">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="J6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="75">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="5">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="105" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="5">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>262</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="J7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="5">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:13" ht="135">
+      <c r="A8" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>61</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
       </c>
       <c r="D8" s="5">
         <v>8</v>
       </c>
       <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
         <v>27</v>
       </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s">
         <v>63</v>
@@ -1535,7 +1535,7 @@
         <v>64</v>
       </c>
       <c r="K8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>65</v>
@@ -1544,7 +1544,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="75">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -1558,13 +1558,13 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
         <v>27</v>
       </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
         <v>69</v>
@@ -1576,7 +1576,7 @@
         <v>71</v>
       </c>
       <c r="K9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>72</v>
@@ -1585,7 +1585,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="105">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -1593,31 +1593,31 @@
         <v>75</v>
       </c>
       <c r="C10" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D10" s="5">
         <v>4</v>
       </c>
       <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
         <v>27</v>
       </c>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
         <v>76</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>77</v>
       </c>
       <c r="K10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>78</v>
@@ -1626,39 +1626,39 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="105">
       <c r="A11" t="s">
         <v>80</v>
       </c>
       <c r="B11" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="5">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="5">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>16</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>17</v>
       </c>
-      <c r="G11" t="s">
-        <v>262</v>
-      </c>
       <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
         <v>19</v>
-      </c>
-      <c r="I11" t="s">
-        <v>20</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>82</v>
       </c>
       <c r="K11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>83</v>
@@ -1667,7 +1667,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="105">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -1681,39 +1681,39 @@
         <v>4</v>
       </c>
       <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
         <v>27</v>
       </c>
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
         <v>87</v>
       </c>
       <c r="I12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>264</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="120">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C13" s="5">
         <v>4</v>
@@ -1722,39 +1722,39 @@
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I13" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="105" hidden="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="105">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C14" s="5">
         <v>3</v>
@@ -1763,39 +1763,39 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
       </c>
-      <c r="F14" t="s">
-        <v>28</v>
-      </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="90">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C15" s="5">
         <v>5</v>
@@ -1804,39 +1804,39 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="150">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C16" s="5">
         <v>3</v>
@@ -1845,121 +1845,121 @@
         <v>4</v>
       </c>
       <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
         <v>27</v>
       </c>
-      <c r="F16" t="s">
-        <v>28</v>
-      </c>
       <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" t="s">
+        <v>113</v>
+      </c>
+      <c r="I16" t="s">
+        <v>114</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K16" t="s">
+        <v>116</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="105">
+      <c r="A17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="5">
+        <v>4</v>
+      </c>
+      <c r="D17" s="5">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K17" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="120">
+      <c r="A18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="5">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
         <v>19</v>
       </c>
-      <c r="H16" t="s">
-        <v>112</v>
-      </c>
-      <c r="I16" t="s">
-        <v>113</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="K16" t="s">
-        <v>115</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="105" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="5">
-        <v>5</v>
-      </c>
-      <c r="D17" s="5">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="K17" t="s">
-        <v>48</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>123</v>
-      </c>
-      <c r="B18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="5">
-        <v>4</v>
-      </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s">
-        <v>262</v>
-      </c>
-      <c r="H18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" t="s">
-        <v>20</v>
-      </c>
       <c r="J18" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="90">
       <c r="A19" t="s">
         <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C19" s="5">
         <v>2</v>
@@ -1968,80 +1968,80 @@
         <v>4</v>
       </c>
       <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
         <v>27</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" t="s">
         <v>28</v>
       </c>
-      <c r="G19" t="s">
+      <c r="I19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="120">
+      <c r="A20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="5">
+        <v>5</v>
+      </c>
+      <c r="D20" s="5">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
         <v>19</v>
       </c>
-      <c r="H19" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" t="s">
-        <v>30</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="K19" t="s">
-        <v>32</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>132</v>
-      </c>
-      <c r="B20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="5">
-        <v>4</v>
-      </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" t="s">
-        <v>262</v>
-      </c>
-      <c r="H20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" t="s">
-        <v>20</v>
-      </c>
       <c r="J20" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="120">
       <c r="A21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
@@ -2050,80 +2050,80 @@
         <v>4</v>
       </c>
       <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
         <v>27</v>
       </c>
-      <c r="F21" t="s">
-        <v>28</v>
-      </c>
       <c r="G21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I21" t="s">
         <v>70</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="105" hidden="1" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="105">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C22" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="5">
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I22" t="s">
         <v>70</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="120">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B23" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C23" s="5">
         <v>4</v>
@@ -2132,39 +2132,39 @@
         <v>4</v>
       </c>
       <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
         <v>27</v>
       </c>
-      <c r="F23" t="s">
-        <v>28</v>
-      </c>
       <c r="G23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I23" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>266</v>
+        <v>150</v>
       </c>
       <c r="K23" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="135">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C24" s="5">
         <v>3</v>
@@ -2173,39 +2173,39 @@
         <v>4</v>
       </c>
       <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
         <v>27</v>
       </c>
-      <c r="F24" t="s">
-        <v>28</v>
-      </c>
       <c r="G24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H24" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I24" t="s">
         <v>63</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="150">
       <c r="A25" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B25" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C25" s="5">
         <v>4</v>
@@ -2214,39 +2214,39 @@
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" t="s">
         <v>28</v>
       </c>
-      <c r="G25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>29</v>
       </c>
-      <c r="I25" t="s">
-        <v>30</v>
-      </c>
       <c r="J25" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K25" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="135">
       <c r="A26" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C26" s="5">
         <v>2</v>
@@ -2255,162 +2255,162 @@
         <v>4</v>
       </c>
       <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
         <v>27</v>
       </c>
-      <c r="F26" t="s">
-        <v>28</v>
-      </c>
       <c r="G26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H26" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I26" t="s">
         <v>70</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="90">
       <c r="A27" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B27" t="s">
-        <v>170</v>
-      </c>
-      <c r="C27" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" s="5">
+        <v>5</v>
+      </c>
+      <c r="D27" s="5">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="5">
-        <v>4</v>
-      </c>
-      <c r="E27" t="s">
-        <v>16</v>
-      </c>
       <c r="F27" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G27" t="s">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="H27" t="s">
-        <v>261</v>
+        <v>176</v>
       </c>
       <c r="I27" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>265</v>
+        <v>178</v>
       </c>
       <c r="K27" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="L27" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="135">
+      <c r="A28" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C28" s="5">
+        <v>6</v>
+      </c>
+      <c r="D28" s="5">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s">
         <v>174</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="G28" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="H28" t="s">
         <v>176</v>
       </c>
-      <c r="B28" t="s">
+      <c r="I28" t="s">
         <v>177</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="J28" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="K28" t="s">
+        <v>179</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="105">
+      <c r="A29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" s="5">
+        <v>5</v>
+      </c>
+      <c r="D29" s="5">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="5">
-        <v>4</v>
-      </c>
-      <c r="E28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" t="s">
-        <v>171</v>
-      </c>
-      <c r="G28" t="s">
-        <v>260</v>
-      </c>
-      <c r="H28" t="s">
-        <v>261</v>
-      </c>
-      <c r="I28" t="s">
-        <v>172</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="K28" t="s">
-        <v>173</v>
-      </c>
-      <c r="L28" s="3" t="s">
+      <c r="F29" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" t="s">
+        <v>175</v>
+      </c>
+      <c r="H29" t="s">
+        <v>176</v>
+      </c>
+      <c r="I29" t="s">
+        <v>177</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="K29" t="s">
         <v>179</v>
       </c>
-      <c r="M28" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="105" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>181</v>
-      </c>
-      <c r="B29" t="s">
-        <v>182</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="5">
-        <v>4</v>
-      </c>
-      <c r="E29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" t="s">
-        <v>171</v>
-      </c>
-      <c r="G29" t="s">
-        <v>260</v>
-      </c>
-      <c r="H29" t="s">
-        <v>261</v>
-      </c>
-      <c r="I29" t="s">
-        <v>172</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="K29" t="s">
-        <v>173</v>
-      </c>
       <c r="L29" s="3" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="135">
       <c r="A30" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B30" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C30" s="5">
         <v>2</v>
@@ -2419,39 +2419,39 @@
         <v>4</v>
       </c>
       <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" t="s">
         <v>27</v>
       </c>
-      <c r="F30" t="s">
-        <v>28</v>
-      </c>
       <c r="G30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I30" t="s">
         <v>70</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>270</v>
+        <v>194</v>
       </c>
       <c r="K30" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="90">
       <c r="A31" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B31" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C31" s="5">
         <v>6</v>
@@ -2460,39 +2460,39 @@
         <v>4</v>
       </c>
       <c r="E31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" t="s">
         <v>27</v>
       </c>
-      <c r="F31" t="s">
-        <v>28</v>
-      </c>
       <c r="G31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H31" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="I31" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>271</v>
+        <v>201</v>
       </c>
       <c r="K31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="M31" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="150">
+      <c r="A32" t="s">
+        <v>204</v>
+      </c>
+      <c r="B32" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>193</v>
-      </c>
-      <c r="B32" t="s">
-        <v>194</v>
       </c>
       <c r="C32" s="5">
         <v>2</v>
@@ -2501,39 +2501,39 @@
         <v>4</v>
       </c>
       <c r="E32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" t="s">
         <v>27</v>
       </c>
-      <c r="F32" t="s">
-        <v>28</v>
-      </c>
       <c r="G32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H32" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="I32" t="s">
         <v>63</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="K32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="120">
       <c r="A33" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="B33" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C33" s="5">
         <v>5</v>
@@ -2542,162 +2542,162 @@
         <v>4</v>
       </c>
       <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
         <v>27</v>
       </c>
-      <c r="F33" t="s">
-        <v>28</v>
-      </c>
       <c r="G33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H33" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="I33" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="K33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="150">
       <c r="A34" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B34" t="s">
-        <v>207</v>
-      </c>
-      <c r="C34" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C34" s="5">
+        <v>4</v>
+      </c>
+      <c r="D34" s="5">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="5">
-        <v>4</v>
-      </c>
-      <c r="E34" t="s">
-        <v>16</v>
-      </c>
       <c r="F34" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G34" t="s">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="H34" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="I34" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="K34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="90">
       <c r="A35" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="B35" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C35" s="5">
+        <v>4</v>
+      </c>
+      <c r="D35" s="5">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="5">
-        <v>4</v>
-      </c>
-      <c r="E35" t="s">
-        <v>16</v>
-      </c>
       <c r="F35" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G35" t="s">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="H35" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="I35" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="K35" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="120">
       <c r="A36" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="B36" t="s">
-        <v>218</v>
-      </c>
-      <c r="C36" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C36" s="5">
+        <v>6</v>
+      </c>
+      <c r="D36" s="5">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="5">
-        <v>4</v>
-      </c>
-      <c r="E36" t="s">
-        <v>16</v>
-      </c>
       <c r="F36" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G36" t="s">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="H36" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="I36" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="K36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="135" hidden="1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="135">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="C37" s="5">
         <v>1</v>
@@ -2706,39 +2706,39 @@
         <v>4</v>
       </c>
       <c r="E37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" t="s">
         <v>27</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" t="s">
+        <v>37</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K37" t="s">
+        <v>236</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="105">
+      <c r="A38" t="s">
         <v>28</v>
       </c>
-      <c r="G37" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" t="s">
-        <v>39</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="K37" t="s">
-        <v>224</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="105" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>29</v>
-      </c>
       <c r="B38" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="C38" s="5">
         <v>1</v>
@@ -2747,203 +2747,203 @@
         <v>4</v>
       </c>
       <c r="E38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" t="s">
         <v>27</v>
       </c>
-      <c r="F38" t="s">
-        <v>28</v>
-      </c>
       <c r="G38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="K38" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="120">
       <c r="A39" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="B39" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="C39" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D39" s="5">
         <v>4</v>
       </c>
       <c r="E39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" t="s">
         <v>27</v>
       </c>
-      <c r="F39" t="s">
-        <v>28</v>
-      </c>
       <c r="G39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I39" t="s">
+        <v>37</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K39" t="s">
         <v>39</v>
       </c>
-      <c r="J39" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="K39" t="s">
-        <v>41</v>
-      </c>
       <c r="L39" s="3" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="135">
       <c r="A40" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="B40" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C40" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D40" s="5">
         <v>4</v>
       </c>
       <c r="E40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" t="s">
         <v>27</v>
       </c>
-      <c r="F40" t="s">
-        <v>28</v>
-      </c>
       <c r="G40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I40" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="K40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="105" hidden="1" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="105">
       <c r="A41" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="B41" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="C41" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" s="5">
         <v>4</v>
       </c>
       <c r="E41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" t="s">
         <v>27</v>
       </c>
-      <c r="F41" t="s">
-        <v>28</v>
-      </c>
       <c r="G41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H41" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="I41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="K41" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="150" hidden="1" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="150">
       <c r="A42" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="B42" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="C42" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" s="5">
         <v>4</v>
       </c>
       <c r="E42" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" t="s">
         <v>27</v>
       </c>
-      <c r="F42" t="s">
-        <v>28</v>
-      </c>
       <c r="G42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I42" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="K42" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="105" hidden="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="105">
       <c r="A43" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B43" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="C43" s="5">
         <v>1</v>
@@ -2952,41 +2952,35 @@
         <v>4</v>
       </c>
       <c r="E43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" t="s">
         <v>27</v>
       </c>
-      <c r="F43" t="s">
-        <v>28</v>
-      </c>
       <c r="G43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I43" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="K43" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M43" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="Gesellschaft und Fremdsprachen"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:M43" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="33" fitToHeight="0" orientation="landscape" r:id="rId1"/>
